--- a/docMineCalc/docCs.xlsx
+++ b/docMineCalc/docCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office-work\assets\plugins\docMine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office-work\assets\plugins\docMineCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98C31D-14D0-4889-8887-C3D45808ACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3544D0-23DB-4ED6-AC32-738C5E3C6FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A19205C9-B453-4420-B023-274ED7B06039}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>5500+15000+3000+3000</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Car+Car</t>
+  </si>
+  <si>
+    <t>May &amp; June</t>
+  </si>
+  <si>
+    <t>2000+2100</t>
+  </si>
+  <si>
+    <t>Rkumar</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,14 +601,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45536</v>
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>6000</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,117 +619,128 @@
         <v>45536</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>7000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>45505</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45597</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>45711</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>45795</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>192370</v>
-      </c>
-    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+      <c r="D23">
+        <v>196470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
